--- a/docs/電腦打字國小英文甲組決賽名冊.xlsx
+++ b/docs/電腦打字國小英文甲組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國小英文甲組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
   <si>
     <t>序</t>
   </si>
@@ -54,10 +54,10 @@
     <t>徐敏議</t>
   </si>
   <si>
-    <t>rs47my7</t>
-  </si>
-  <si>
-    <t>kfr86kf3</t>
+    <t>kf95jk7</t>
+  </si>
+  <si>
+    <t>b69my3</t>
   </si>
   <si>
     <t>大甲區文昌國小</t>
@@ -69,475 +69,451 @@
     <t>謝俊異</t>
   </si>
   <si>
-    <t>tv22cd3</t>
-  </si>
-  <si>
-    <t>v88an6</t>
+    <t>bjk62bj4</t>
+  </si>
+  <si>
+    <t>my54t3</t>
+  </si>
+  <si>
+    <t>大甲區日南國小</t>
+  </si>
+  <si>
+    <t>吳楷澤</t>
+  </si>
+  <si>
+    <t>吳姿慧</t>
+  </si>
+  <si>
+    <t>tv55g2</t>
+  </si>
+  <si>
+    <t>myg28k2</t>
+  </si>
+  <si>
+    <t>周家佑</t>
+  </si>
+  <si>
+    <t>p44s2</t>
+  </si>
+  <si>
+    <t>rsm31e6</t>
+  </si>
+  <si>
+    <t>潘暐珉</t>
+  </si>
+  <si>
+    <t>hp83n4</t>
+  </si>
+  <si>
+    <t>jkf65cd2</t>
   </si>
   <si>
     <t>大里區大元國小</t>
   </si>
   <si>
-    <t>邱彥欣</t>
+    <t>林品妤</t>
   </si>
   <si>
     <t>黃豐炘</t>
   </si>
   <si>
-    <t>n16h8</t>
-  </si>
-  <si>
-    <t>sm90g3</t>
-  </si>
-  <si>
-    <t>湯采恩</t>
-  </si>
-  <si>
-    <t>rs18p6</t>
-  </si>
-  <si>
-    <t>h75k4</t>
-  </si>
-  <si>
-    <t>賴妍庭</t>
-  </si>
-  <si>
-    <t>hp10w3</t>
-  </si>
-  <si>
-    <t>cd20d1</t>
-  </si>
-  <si>
-    <t>大里區永隆國小</t>
-  </si>
-  <si>
-    <t>林采臻</t>
-  </si>
-  <si>
-    <t>王建惟</t>
-  </si>
-  <si>
-    <t>hpe20my2</t>
-  </si>
-  <si>
-    <t>g4dx3</t>
-  </si>
-  <si>
-    <t>林采璇</t>
-  </si>
-  <si>
-    <t>施志豪</t>
-  </si>
-  <si>
-    <t>y97p9</t>
-  </si>
-  <si>
-    <t>v47nc4</t>
-  </si>
-  <si>
-    <t>張智婷</t>
-  </si>
-  <si>
-    <t>張安邦</t>
-  </si>
-  <si>
-    <t>p9sm3</t>
-  </si>
-  <si>
-    <t>kf73w3</t>
+    <t>an18p8</t>
+  </si>
+  <si>
+    <t>p51g9</t>
+  </si>
+  <si>
+    <t>大里區瑞城國小</t>
+  </si>
+  <si>
+    <t>紀彥穅</t>
+  </si>
+  <si>
+    <t>詹雪卿</t>
+  </si>
+  <si>
+    <t>hp94f1</t>
+  </si>
+  <si>
+    <t>fr15k2</t>
+  </si>
+  <si>
+    <t>大雅區上楓國小</t>
+  </si>
+  <si>
+    <t>楊佳佳</t>
+  </si>
+  <si>
+    <t>林宏憲</t>
+  </si>
+  <si>
+    <t>tv28jk7</t>
+  </si>
+  <si>
+    <t>sm96jk7</t>
   </si>
   <si>
     <t>大雅區大明國小</t>
   </si>
   <si>
-    <t>吳倢均</t>
+    <t>張雅晴</t>
   </si>
   <si>
     <t>周熙平</t>
   </si>
   <si>
-    <t>sm57fr8</t>
-  </si>
-  <si>
-    <t>b89kf6</t>
-  </si>
-  <si>
-    <t>張雅晴</t>
-  </si>
-  <si>
-    <t>b38sm5</t>
-  </si>
-  <si>
-    <t>kfr5x5</t>
+    <t>sm55kf2</t>
+  </si>
+  <si>
+    <t>hp93d2</t>
   </si>
   <si>
     <t>張祐誠</t>
   </si>
   <si>
-    <t>gw10d9</t>
-  </si>
-  <si>
-    <t>et54rs8</t>
+    <t>cdx47jk7</t>
+  </si>
+  <si>
+    <t>cd15tv8</t>
+  </si>
+  <si>
+    <t>范宸瑜</t>
+  </si>
+  <si>
+    <t>dx30kf3</t>
+  </si>
+  <si>
+    <t>fr65nc7</t>
   </si>
   <si>
     <t>大雅區大雅國小</t>
   </si>
   <si>
-    <t>吳曉婷</t>
-  </si>
-  <si>
-    <t>楊晴惠</t>
-  </si>
-  <si>
-    <t>hp89yg5</t>
-  </si>
-  <si>
-    <t>gwh74my5</t>
-  </si>
-  <si>
-    <t>楊詠瑜</t>
-  </si>
-  <si>
-    <t>陳青華</t>
-  </si>
-  <si>
-    <t>x81h5</t>
-  </si>
-  <si>
-    <t>tv81s2</t>
-  </si>
-  <si>
-    <t>陳育炫</t>
-  </si>
-  <si>
-    <t>洪千閔</t>
-  </si>
-  <si>
-    <t>pe23my8</t>
-  </si>
-  <si>
-    <t>m80m5</t>
-  </si>
-  <si>
-    <t>太平區新平國小</t>
-  </si>
-  <si>
-    <t>林嘉文</t>
-  </si>
-  <si>
-    <t>徐振豐</t>
-  </si>
-  <si>
-    <t>gw52my3</t>
-  </si>
-  <si>
-    <t>f6c6</t>
-  </si>
-  <si>
-    <t>許宜婷</t>
-  </si>
-  <si>
-    <t>tv20j3</t>
-  </si>
-  <si>
-    <t>smy78et3</t>
-  </si>
-  <si>
-    <t>太平區新光國小</t>
-  </si>
-  <si>
-    <t>施冠宇</t>
-  </si>
-  <si>
-    <t>余佳芳</t>
-  </si>
-  <si>
-    <t>rs98s9</t>
-  </si>
-  <si>
-    <t>s97r8</t>
-  </si>
-  <si>
-    <t>林定宇</t>
-  </si>
-  <si>
-    <t>bj43s7</t>
-  </si>
-  <si>
-    <t>xbj44e4</t>
-  </si>
-  <si>
-    <t>北屯區文心國小</t>
-  </si>
-  <si>
-    <t>廖御名</t>
-  </si>
-  <si>
-    <t>林義哲</t>
-  </si>
-  <si>
-    <t>f54bj2</t>
-  </si>
-  <si>
-    <t>cd20f6</t>
-  </si>
-  <si>
-    <t>藺筠媗</t>
-  </si>
-  <si>
-    <t>黃中興</t>
-  </si>
-  <si>
-    <t>dx81cd9</t>
-  </si>
-  <si>
-    <t>pe11tv6</t>
+    <t>許光勛</t>
+  </si>
+  <si>
+    <t>周其光</t>
+  </si>
+  <si>
+    <t>sm26h3</t>
+  </si>
+  <si>
+    <t>nc64b7</t>
+  </si>
+  <si>
+    <t>吳宇環</t>
+  </si>
+  <si>
+    <t>劉若男</t>
+  </si>
+  <si>
+    <t>frs37f8</t>
+  </si>
+  <si>
+    <t>cd75x4</t>
+  </si>
+  <si>
+    <t>北屯區明道普霖斯頓小學</t>
+  </si>
+  <si>
+    <t>嚴毅</t>
+  </si>
+  <si>
+    <t>張維真</t>
+  </si>
+  <si>
+    <t>f37a4</t>
+  </si>
+  <si>
+    <t>kf69n3</t>
+  </si>
+  <si>
+    <t>盧佳安</t>
+  </si>
+  <si>
+    <t>e96k1</t>
+  </si>
+  <si>
+    <t>nc13f7</t>
+  </si>
+  <si>
+    <t>蘇澔威</t>
+  </si>
+  <si>
+    <t>m34t6</t>
+  </si>
+  <si>
+    <t>xbj69y5</t>
+  </si>
+  <si>
+    <t>北區育仁小學</t>
+  </si>
+  <si>
+    <t>鐘宛余</t>
+  </si>
+  <si>
+    <t>謝佳恩</t>
+  </si>
+  <si>
+    <t>sm81yg1</t>
+  </si>
+  <si>
+    <t>nc51t1</t>
+  </si>
+  <si>
+    <t>林弘侑</t>
+  </si>
+  <si>
+    <t>ncd93wh4</t>
+  </si>
+  <si>
+    <t>a66r6</t>
+  </si>
+  <si>
+    <t>林思瑩</t>
+  </si>
+  <si>
+    <t>xb63rs7</t>
+  </si>
+  <si>
+    <t>b10p3</t>
+  </si>
+  <si>
+    <t>陳宥蓁</t>
+  </si>
+  <si>
+    <t>f73b2</t>
+  </si>
+  <si>
+    <t>k75m5</t>
   </si>
   <si>
     <t>北區賴厝國小</t>
   </si>
   <si>
-    <t>林均昊</t>
+    <t>吳芝瑜</t>
   </si>
   <si>
     <t>張字和</t>
   </si>
   <si>
-    <t>bj49j4</t>
-  </si>
-  <si>
-    <t>rs70jk6</t>
-  </si>
-  <si>
-    <t>林晉安</t>
-  </si>
-  <si>
-    <t>m97my2</t>
-  </si>
-  <si>
-    <t>s31nc7</t>
+    <t>x67gw8</t>
+  </si>
+  <si>
+    <t>my90kf7</t>
+  </si>
+  <si>
+    <t>外埔區外埔國小</t>
+  </si>
+  <si>
+    <t>陳蓁妍</t>
+  </si>
+  <si>
+    <t>陳文鴻</t>
+  </si>
+  <si>
+    <t>f53sm5</t>
+  </si>
+  <si>
+    <t>r77a9</t>
   </si>
   <si>
     <t>后里區內埔國小</t>
   </si>
   <si>
-    <t>邵庭宇</t>
+    <t>林郁璇</t>
   </si>
   <si>
     <t>張育嘉</t>
   </si>
   <si>
-    <t>an67gw6</t>
-  </si>
-  <si>
-    <t>my40c2</t>
-  </si>
-  <si>
-    <t>蕭丞佑</t>
-  </si>
-  <si>
-    <t>陳進志</t>
-  </si>
-  <si>
-    <t>my84wh3</t>
-  </si>
-  <si>
-    <t>v20x4</t>
-  </si>
-  <si>
-    <t>梁祐銓</t>
-  </si>
-  <si>
-    <t>wh95b2</t>
-  </si>
-  <si>
-    <t>w55kf3</t>
-  </si>
-  <si>
-    <t>西屯區長安國小</t>
-  </si>
-  <si>
-    <t>陳品翰</t>
-  </si>
-  <si>
-    <t>王文君</t>
-  </si>
-  <si>
-    <t>tv9a4</t>
-  </si>
-  <si>
-    <t>p6d2</t>
+    <t>myg20tv9</t>
+  </si>
+  <si>
+    <t>cd40h3</t>
+  </si>
+  <si>
+    <t>張芷翎</t>
+  </si>
+  <si>
+    <t>rsm90b3</t>
+  </si>
+  <si>
+    <t>b68fr1</t>
+  </si>
+  <si>
+    <t>楊雯文</t>
+  </si>
+  <si>
+    <t>tv97r5</t>
+  </si>
+  <si>
+    <t>pet87yg4</t>
   </si>
   <si>
     <t>西區大勇國小</t>
   </si>
   <si>
-    <t>張志玲</t>
+    <t>張立瑋</t>
   </si>
   <si>
     <t>鄭榮頌</t>
   </si>
   <si>
-    <t>w70rs6</t>
-  </si>
-  <si>
-    <t>e35cd7</t>
+    <t>cdx72r8</t>
+  </si>
+  <si>
+    <t>s6yg4</t>
+  </si>
+  <si>
+    <t>西區忠明國小</t>
+  </si>
+  <si>
+    <t>陳尚左</t>
+  </si>
+  <si>
+    <t>張詩岳</t>
+  </si>
+  <si>
+    <t>g80k6</t>
+  </si>
+  <si>
+    <t>tv8xb2</t>
+  </si>
+  <si>
+    <t>沙鹿區沙鹿國小</t>
+  </si>
+  <si>
+    <t>李哲宇</t>
+  </si>
+  <si>
+    <t>陳有興</t>
+  </si>
+  <si>
+    <t>sm59pe5</t>
+  </si>
+  <si>
+    <t>hp61pe8</t>
+  </si>
+  <si>
+    <t>東區大智國小</t>
+  </si>
+  <si>
+    <t>林毓展</t>
+  </si>
+  <si>
+    <t>黃志斌</t>
+  </si>
+  <si>
+    <t>my98xb5</t>
+  </si>
+  <si>
+    <t>jk59xb7</t>
+  </si>
+  <si>
+    <t>東區成功國小</t>
+  </si>
+  <si>
+    <t>謝宇翔</t>
+  </si>
+  <si>
+    <t>温山明</t>
+  </si>
+  <si>
+    <t>an38x8</t>
+  </si>
+  <si>
+    <t>xb72m2</t>
   </si>
   <si>
     <t>南屯區大新國小</t>
   </si>
   <si>
-    <t>黃彥慈</t>
+    <t>姚鈞翔</t>
   </si>
   <si>
     <t>巫裕雄</t>
   </si>
   <si>
-    <t>myg63c7</t>
-  </si>
-  <si>
-    <t>fr79sm4</t>
-  </si>
-  <si>
-    <t>姚鈞翔</t>
-  </si>
-  <si>
-    <t>kf31yg8</t>
-  </si>
-  <si>
-    <t>jk33dx1</t>
-  </si>
-  <si>
-    <t>王冠堯</t>
-  </si>
-  <si>
-    <t>tv21fr8</t>
-  </si>
-  <si>
-    <t>e52y8</t>
+    <t>frs85rs9</t>
+  </si>
+  <si>
+    <t>jkf44d6</t>
+  </si>
+  <si>
+    <t>蘇郁晴</t>
+  </si>
+  <si>
+    <t>my73c9</t>
+  </si>
+  <si>
+    <t>anc90wh9</t>
+  </si>
+  <si>
+    <t>陳誼安</t>
+  </si>
+  <si>
+    <t>xbj25x7</t>
+  </si>
+  <si>
+    <t>hp49p4</t>
   </si>
   <si>
     <t>南屯區大墩國小</t>
   </si>
   <si>
-    <t>廖顯杰</t>
-  </si>
-  <si>
-    <t>賴明珠</t>
-  </si>
-  <si>
-    <t>x66sm4</t>
-  </si>
-  <si>
-    <t>dx96yg3</t>
-  </si>
-  <si>
-    <t>林俞希</t>
+    <t>歐凱鈞</t>
   </si>
   <si>
     <t>呂岳霖</t>
   </si>
   <si>
-    <t>hp76m7</t>
-  </si>
-  <si>
-    <t>tv91pe7</t>
-  </si>
-  <si>
-    <t>歐凱鈞</t>
-  </si>
-  <si>
-    <t>hp68tv5</t>
-  </si>
-  <si>
-    <t>gw11my3</t>
+    <t>bjk57jk8</t>
+  </si>
+  <si>
+    <t>p30fr8</t>
   </si>
   <si>
     <t>南屯區永春國小</t>
   </si>
   <si>
+    <t>蔡心云</t>
+  </si>
+  <si>
+    <t>張淑芳</t>
+  </si>
+  <si>
+    <t>v2k3</t>
+  </si>
+  <si>
+    <t>ncd6e7</t>
+  </si>
+  <si>
+    <t>林晁毅</t>
+  </si>
+  <si>
+    <t>hp55kf8</t>
+  </si>
+  <si>
+    <t>frs20b6</t>
+  </si>
+  <si>
+    <t>呂品諒</t>
+  </si>
+  <si>
+    <t>c53bj9</t>
+  </si>
+  <si>
+    <t>dxb27kf6</t>
+  </si>
+  <si>
     <t>范竣閔</t>
   </si>
   <si>
-    <t>張淑芳</t>
-  </si>
-  <si>
-    <t>jk7w2</t>
-  </si>
-  <si>
-    <t>rs84d6</t>
-  </si>
-  <si>
-    <t>南屯區東興國小</t>
-  </si>
-  <si>
-    <t>林禹諺</t>
-  </si>
-  <si>
-    <t>楊詠翔</t>
-  </si>
-  <si>
-    <t>c81c4</t>
-  </si>
-  <si>
-    <t>etv46d6</t>
-  </si>
-  <si>
-    <t>葉育任</t>
-  </si>
-  <si>
-    <t>a9sm5</t>
-  </si>
-  <si>
-    <t>yg79r7</t>
-  </si>
-  <si>
-    <t>南屯區惠文國小</t>
-  </si>
-  <si>
-    <t>林子睿</t>
-  </si>
-  <si>
-    <t>蔡小玲</t>
-  </si>
-  <si>
-    <t>an50nc2</t>
-  </si>
-  <si>
-    <t>b17yg6</t>
-  </si>
-  <si>
-    <t>林照翌</t>
-  </si>
-  <si>
-    <t>v61an4</t>
-  </si>
-  <si>
-    <t>hpe40sm5</t>
-  </si>
-  <si>
-    <t>鄒承峰</t>
-  </si>
-  <si>
-    <t>y69sm4</t>
-  </si>
-  <si>
-    <t>pe24k3</t>
-  </si>
-  <si>
-    <t>南區和平國小</t>
-  </si>
-  <si>
-    <t>王政翔</t>
-  </si>
-  <si>
-    <t>陳涵青</t>
-  </si>
-  <si>
-    <t>r67g5</t>
-  </si>
-  <si>
-    <t>whp92e2</t>
+    <t>dx63et8</t>
+  </si>
+  <si>
+    <t>et51tv5</t>
   </si>
   <si>
     <t>南區樹義國小</t>
@@ -549,34 +525,52 @@
     <t>王佩芬</t>
   </si>
   <si>
-    <t>dx39v2</t>
-  </si>
-  <si>
-    <t>nc9g2</t>
+    <t>h18j1</t>
+  </si>
+  <si>
+    <t>kf71n5</t>
   </si>
   <si>
     <t>廖偉甯</t>
   </si>
   <si>
-    <t>bj8yg6</t>
-  </si>
-  <si>
-    <t>bjk79e7</t>
-  </si>
-  <si>
-    <t>潭子區東寶國小</t>
-  </si>
-  <si>
-    <t>楊易昇</t>
-  </si>
-  <si>
-    <t>柯重吉</t>
-  </si>
-  <si>
-    <t>ncd9r5</t>
-  </si>
-  <si>
-    <t>t99x6</t>
+    <t>hpe52jk5</t>
+  </si>
+  <si>
+    <t>my34w2</t>
+  </si>
+  <si>
+    <t>施宥均</t>
+  </si>
+  <si>
+    <t>hp85bj6</t>
+  </si>
+  <si>
+    <t>gwh84n5</t>
+  </si>
+  <si>
+    <t>何尹騰</t>
+  </si>
+  <si>
+    <t>kfr18c9</t>
+  </si>
+  <si>
+    <t>xb37n1</t>
+  </si>
+  <si>
+    <t>梧棲區大德國小</t>
+  </si>
+  <si>
+    <t>劉冠呈</t>
+  </si>
+  <si>
+    <t>羅木蓮</t>
+  </si>
+  <si>
+    <t>my49p4</t>
+  </si>
+  <si>
+    <t>rs50k4</t>
   </si>
   <si>
     <t>潭子區潭陽國小</t>
@@ -588,19 +582,19 @@
     <t>蔡育忠</t>
   </si>
   <si>
-    <t>frs87c6</t>
-  </si>
-  <si>
-    <t>wh7p5</t>
+    <t>bj34g7</t>
+  </si>
+  <si>
+    <t>rsm46p5</t>
   </si>
   <si>
     <t>邱楨玲</t>
   </si>
   <si>
-    <t>gw28v3</t>
-  </si>
-  <si>
-    <t>a67jk8</t>
+    <t>c51jk3</t>
+  </si>
+  <si>
+    <t>h41kf7</t>
   </si>
 </sst>
 </file>
@@ -1602,11 +1596,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1778,19 +1772,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1801,19 +1795,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1824,19 +1818,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1847,19 +1841,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1870,19 +1864,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1893,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1916,19 +1910,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1939,19 +1933,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1962,19 +1956,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1985,19 +1979,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2008,19 +2002,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2031,19 +2025,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2054,19 +2048,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2077,19 +2071,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2100,19 +2094,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2123,13 +2117,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>97</v>
@@ -2175,13 +2169,13 @@
         <v>104</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2195,16 +2189,16 @@
         <v>99</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2215,19 +2209,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2238,19 +2232,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2261,19 +2255,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2284,19 +2278,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2307,19 +2301,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2330,19 +2324,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2353,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="F33" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2376,19 +2370,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2399,19 +2393,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2422,19 +2416,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2445,19 +2439,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2468,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>160</v>
@@ -2491,13 +2485,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>163</v>
@@ -2514,19 +2508,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2537,13 +2531,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>171</v>
@@ -2560,19 +2554,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2583,19 +2577,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2606,19 +2600,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2629,19 +2623,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2652,19 +2646,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
